--- a/ProjectOrder/Admin/Excel/databill.xlsx
+++ b/ProjectOrder/Admin/Excel/databill.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Mã Hóa Đơn</t>
   </si>
@@ -30,6 +30,18 @@
   </si>
   <si>
     <t>Ngày</t>
+  </si>
+  <si>
+    <t>22-02-2019</t>
+  </si>
+  <si>
+    <t>27-02-2019</t>
+  </si>
+  <si>
+    <t>07-03-2019</t>
+  </si>
+  <si>
+    <t>08-03-2019</t>
   </si>
 </sst>
 </file>
@@ -88,11 +100,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -394,10 +409,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,6 +439,142 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2019021</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1902000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2019022</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>345000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2019025</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>300000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2019026</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>82000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2019027</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>250000</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019028</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>170000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2019039</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>65000</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20190310</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>65000</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectOrder/Admin/Excel/databill.xlsx
+++ b/ProjectOrder/Admin/Excel/databill.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Mã Hóa Đơn</t>
   </si>
@@ -32,16 +32,7 @@
     <t>Ngày</t>
   </si>
   <si>
-    <t>22-02-2019</t>
-  </si>
-  <si>
-    <t>27-02-2019</t>
-  </si>
-  <si>
-    <t>07-03-2019</t>
-  </si>
-  <si>
-    <t>08-03-2019</t>
+    <t>28-03-2019</t>
   </si>
 </sst>
 </file>
@@ -409,10 +400,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -446,135 +437,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2019021</v>
+        <v>2019031</v>
       </c>
       <c r="C2" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>1902000</v>
+        <v>60000</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2019022</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>345000</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2019025</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>300000</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2019026</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>82000</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2019027</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>250000</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2019028</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>170000</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2019039</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>65000</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>20190310</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>65000</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectOrder/Admin/Excel/databill.xlsx
+++ b/ProjectOrder/Admin/Excel/databill.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>Mã Hóa Đơn</t>
   </si>
@@ -30,18 +30,6 @@
   </si>
   <si>
     <t>Ngày</t>
-  </si>
-  <si>
-    <t>22-02-2019</t>
-  </si>
-  <si>
-    <t>27-02-2019</t>
-  </si>
-  <si>
-    <t>07-03-2019</t>
-  </si>
-  <si>
-    <t>08-03-2019</t>
   </si>
 </sst>
 </file>
@@ -100,14 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -409,10 +394,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -441,142 +426,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2019021</v>
-      </c>
-      <c r="C2" s="2">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1902000</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2019022</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>345000</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2019025</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>300000</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2019026</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>82000</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2019027</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>250000</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2019028</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>170000</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2019039</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>65000</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>20190310</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>65000</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/ProjectOrder/Admin/Excel/databill.xlsx
+++ b/ProjectOrder/Admin/Excel/databill.xlsx
@@ -32,7 +32,7 @@
     <t>Ngày</t>
   </si>
   <si>
-    <t>28-03-2019</t>
+    <t>29-03-2019</t>
   </si>
 </sst>
 </file>
@@ -400,10 +400,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,18 +434,69 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2019031</v>
+        <v>2019032</v>
       </c>
       <c r="C2" s="2">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>95000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2019034</v>
+      </c>
+      <c r="C3" s="2">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>240000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2019037</v>
+      </c>
+      <c r="C4" s="2">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>105000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <v>60000</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B5" s="2">
+        <v>2019038</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>265000</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
